--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/s37-settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/s37-settings</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T20:08:03+00:00</t>
+    <t>2022-04-08T20:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5666" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T20:19:51+00:00</t>
+    <t>2022-04-08T20:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -478,6 +478,9 @@
   <si>
     <t>optionalPresets</t>
   </si>
+  <si>
+    <t>foid</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ174"/>
+  <dimension ref="A1:AJ179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -18188,15 +18191,17 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B173" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>81</v>
@@ -18211,24 +18216,22 @@
         <v>74</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="R173" t="s" s="2">
         <v>74</v>
@@ -18270,27 +18273,27 @@
         <v>74</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -18301,7 +18304,7 @@
         <v>75</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>74</v>
@@ -18313,13 +18316,13 @@
         <v>74</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -18370,21 +18373,525 @@
         <v>74</v>
       </c>
       <c r="AE174" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE177" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AF174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI174" t="s" s="2">
+      <c r="AF177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI177" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AJ174" t="s" s="2">
+      <c r="AJ177" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N178" s="2"/>
+      <c r="O178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P178" s="2"/>
+      <c r="Q178" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE178" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P179" s="2"/>
+      <c r="Q179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
         <v>107</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Gerneral Settings Extension</t>
+    <t>S37 Item Setting Extensions applied to Questionnaire.item</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T20:27:55+00:00</t>
+    <t>2022-04-08T20:42:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -809,7 +809,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.9296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>S37 Item Setting Extensions applied to Questionnaire.item</t>
+    <t>S37 Extension to Questionnaire.item</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T20:42:59+00:00</t>
+    <t>2022-04-08T20:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -809,7 +809,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.9296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T20:51:34+00:00</t>
+    <t>2022-04-11T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:40:30+00:00</t>
+    <t>2022-04-11T16:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:52:02+00:00</t>
+    <t>2022-04-11T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:02:35+00:00</t>
+    <t>2022-04-11T17:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:09:19+00:00</t>
+    <t>2022-04-11T17:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>S37 Extension to Questionnaire.item</t>
+    <t>Questionnaire.item Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:19:31+00:00</t>
+    <t>2022-04-11T17:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire.item Extension</t>
+    <t xml:space="preserve">Extension : Questionnaire.item </t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:46:13+00:00</t>
+    <t>2022-04-11T17:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:58:20+00:00</t>
+    <t>2022-04-11T18:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:04:55+00:00</t>
+    <t>2022-04-11T18:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:10:40+00:00</t>
+    <t>2022-04-11T18:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:53:32+00:00</t>
+    <t>2022-04-11T19:03:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T19:03:21+00:00</t>
+    <t>2022-04-11T20:24:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:24:48+00:00</t>
+    <t>2022-04-11T20:32:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:32:47+00:00</t>
+    <t>2022-04-11T20:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-s37-settings.xlsx
+++ b/branches/master/StructureDefinition-s37-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:39:05+00:00</t>
+    <t>2022-04-11T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
